--- a/modules_schedules/Y4_B2526_General_&_Special_surgery_1_schedule.xlsx
+++ b/modules_schedules/Y4_B2526_General_&_Special_surgery_1_schedule.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1427,6 +1427,2771 @@
         <v>180</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>10/09/2025</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G29" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>11/09/2025</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="F33" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G33" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D35" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="F35" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G35" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D37" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G37" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D39" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E39" s="7" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G39" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>07/10/2025</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D41" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E41" s="7" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
+      <c r="F41" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G41" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E43" s="7" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="F43" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G43" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="F44" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D45" s="6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E45" s="7" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="F45" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G45" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E47" s="7" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="F47" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G47" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E49" s="7" t="inlineStr">
+        <is>
+          <t>28/10/2025</t>
+        </is>
+      </c>
+      <c r="F49" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G49" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E51" s="7" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="F51" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G51" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E53" s="7" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G53" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>B2D</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>06/11/2025</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E55" s="7" t="inlineStr">
+        <is>
+          <t>06/09/2025</t>
+        </is>
+      </c>
+      <c r="F55" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G55" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>07/09/2025</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C57" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D57" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E57" s="7" t="inlineStr">
+        <is>
+          <t>13/09/2025</t>
+        </is>
+      </c>
+      <c r="F57" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G57" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>14/09/2025</t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D59" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E59" s="7" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="F59" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G59" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C61" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D61" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E61" s="7" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="F61" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G61" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D63" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E63" s="7" t="inlineStr">
+        <is>
+          <t>27/09/2025</t>
+        </is>
+      </c>
+      <c r="F63" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G63" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B65" s="6" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C65" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D65" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E65" s="7" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="F65" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G65" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="F66" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B67" s="6" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C67" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D67" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E67" s="7" t="inlineStr">
+        <is>
+          <t>05/10/2025</t>
+        </is>
+      </c>
+      <c r="F67" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G67" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>06/10/2025</t>
+        </is>
+      </c>
+      <c r="F68" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C69" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D69" s="6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E69" s="7" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="F69" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G69" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>12/10/2025</t>
+        </is>
+      </c>
+      <c r="F70" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B71" s="6" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E71" s="7" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="F71" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G71" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>18/10/2025</t>
+        </is>
+      </c>
+      <c r="F72" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E73" s="7" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="F73" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G73" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>20/10/2025</t>
+        </is>
+      </c>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E75" s="7" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="F75" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G75" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>26/10/2025</t>
+        </is>
+      </c>
+      <c r="F76" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E77" s="7" t="inlineStr">
+        <is>
+          <t>27/10/2025</t>
+        </is>
+      </c>
+      <c r="F77" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G77" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E79" s="7" t="inlineStr">
+        <is>
+          <t>02/11/2025</t>
+        </is>
+      </c>
+      <c r="F79" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G79" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>B2b</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="F80" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G80" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D81" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E81" s="7" t="inlineStr">
+        <is>
+          <t>06/09/2025</t>
+        </is>
+      </c>
+      <c r="F81" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G81" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>07/09/2025</t>
+        </is>
+      </c>
+      <c r="F82" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G82" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D83" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E83" s="7" t="inlineStr">
+        <is>
+          <t>13/09/2025</t>
+        </is>
+      </c>
+      <c r="F83" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G83" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>14/09/2025</t>
+        </is>
+      </c>
+      <c r="F84" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G84" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B85" s="6" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C85" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D85" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E85" s="7" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="F85" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G85" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="F86" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G86" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B87" s="6" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C87" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D87" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E87" s="7" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="F87" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G87" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="F88" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G88" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B89" s="6" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C89" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D89" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E89" s="7" t="inlineStr">
+        <is>
+          <t>27/09/2025</t>
+        </is>
+      </c>
+      <c r="F89" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G89" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="F90" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G90" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B91" s="6" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C91" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D91" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E91" s="7" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="F91" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G91" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="F92" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G92" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B93" s="6" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C93" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D93" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E93" s="7" t="inlineStr">
+        <is>
+          <t>05/10/2025</t>
+        </is>
+      </c>
+      <c r="F93" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G93" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>06/10/2025</t>
+        </is>
+      </c>
+      <c r="F94" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G94" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B95" s="6" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C95" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D95" s="6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E95" s="7" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="F95" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G95" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>12/10/2025</t>
+        </is>
+      </c>
+      <c r="F96" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G96" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B97" s="6" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C97" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D97" s="6" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E97" s="7" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="F97" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G97" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>18/10/2025</t>
+        </is>
+      </c>
+      <c r="F98" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G98" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B99" s="6" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C99" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D99" s="6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E99" s="7" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="F99" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G99" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>20/10/2025</t>
+        </is>
+      </c>
+      <c r="F100" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G100" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B101" s="6" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C101" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D101" s="6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E101" s="7" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="F101" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G101" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>26/10/2025</t>
+        </is>
+      </c>
+      <c r="F102" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G102" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B103" s="6" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C103" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D103" s="6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E103" s="7" t="inlineStr">
+        <is>
+          <t>27/10/2025</t>
+        </is>
+      </c>
+      <c r="F103" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G103" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="F104" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G104" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B105" s="6" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C105" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D105" s="6" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E105" s="7" t="inlineStr">
+        <is>
+          <t>02/11/2025</t>
+        </is>
+      </c>
+      <c r="F105" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G105" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>B2c</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="F106" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G106" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modules_schedules/Y4_B2526_General_&_Special_surgery_1_schedule.xlsx
+++ b/modules_schedules/Y4_B2526_General_&_Special_surgery_1_schedule.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="General_&amp;_Special_surgery_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="General_&amp;_Special_surgery_1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>09/09/2025</t>
+          <t>06/09/2025</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B29" s="6" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C29" s="6" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
-          <t>10/09/2025</t>
+          <t>07/09/2025</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>11/09/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="B31" s="6" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C31" s="6" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="E31" s="7" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>14/09/2025</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="B33" s="6" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C33" s="6" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="E33" s="7" t="inlineStr">
         <is>
-          <t>18/09/2025</t>
+          <t>20/09/2025</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>23/09/2025</t>
+          <t>21/09/2025</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B35" s="6" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C35" s="6" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="E35" s="7" t="inlineStr">
         <is>
-          <t>24/09/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>27/09/2025</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B37" s="6" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C37" s="6" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="E37" s="7" t="inlineStr">
         <is>
-          <t>30/09/2025</t>
+          <t>28/09/2025</t>
         </is>
       </c>
       <c r="F37" s="8" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>01/10/2025</t>
+          <t>29/09/2025</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="B39" s="6" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C39" s="6" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="E39" s="7" t="inlineStr">
         <is>
-          <t>02/10/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="F39" s="8" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>07/10/2025</t>
+          <t>05/10/2025</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B41" s="6" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C41" s="6" t="inlineStr">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="E41" s="7" t="inlineStr">
         <is>
-          <t>08/10/2025</t>
+          <t>06/10/2025</t>
         </is>
       </c>
       <c r="F41" s="8" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>09/10/2025</t>
+          <t>11/10/2025</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B43" s="6" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C43" s="6" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E43" s="7" t="inlineStr">
         <is>
-          <t>14/10/2025</t>
+          <t>12/10/2025</t>
         </is>
       </c>
       <c r="F43" s="8" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>15/10/2025</t>
+          <t>13/10/2025</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="B45" s="6" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C45" s="6" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="E45" s="7" t="inlineStr">
         <is>
-          <t>16/10/2025</t>
+          <t>18/10/2025</t>
         </is>
       </c>
       <c r="F45" s="8" t="inlineStr">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>21/10/2025</t>
+          <t>19/10/2025</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B47" s="6" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C47" s="6" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="E47" s="7" t="inlineStr">
         <is>
-          <t>22/10/2025</t>
+          <t>20/10/2025</t>
         </is>
       </c>
       <c r="F47" s="8" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>25/10/2025</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="B49" s="6" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C49" s="6" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="E49" s="7" t="inlineStr">
         <is>
-          <t>28/10/2025</t>
+          <t>26/10/2025</t>
         </is>
       </c>
       <c r="F49" s="8" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>29/10/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="B51" s="6" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C51" s="6" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="E51" s="7" t="inlineStr">
         <is>
-          <t>30/10/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="F51" s="8" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>04/11/2025</t>
+          <t>02/11/2025</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="B53" s="6" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="C53" s="6" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="E53" s="7" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>03/11/2025</t>
         </is>
       </c>
       <c r="F53" s="8" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>06/09/2025</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B55" s="6" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C55" s="6" t="inlineStr">
@@ -2390,12 +2390,12 @@
       </c>
       <c r="D55" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E55" s="7" t="inlineStr">
         <is>
-          <t>06/09/2025</t>
+          <t>07/09/2025</t>
         </is>
       </c>
       <c r="F55" s="8" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -2425,12 +2425,12 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>07/09/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="B57" s="6" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C57" s="6" t="inlineStr">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="D57" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E57" s="7" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>14/09/2025</t>
         </is>
       </c>
       <c r="F57" s="8" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -2495,12 +2495,12 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>14/09/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B59" s="6" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C59" s="6" t="inlineStr">
@@ -2530,12 +2530,12 @@
       </c>
       <c r="D59" s="6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E59" s="7" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>20/09/2025</t>
         </is>
       </c>
       <c r="F59" s="8" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -2565,12 +2565,12 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>20/09/2025</t>
+          <t>21/09/2025</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C61" s="6" t="inlineStr">
@@ -2600,12 +2600,12 @@
       </c>
       <c r="D61" s="6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E61" s="7" t="inlineStr">
         <is>
-          <t>21/09/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="F61" s="8" t="inlineStr">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -2635,12 +2635,12 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>27/09/2025</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="B63" s="6" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C63" s="6" t="inlineStr">
@@ -2670,12 +2670,12 @@
       </c>
       <c r="D63" s="6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E63" s="7" t="inlineStr">
         <is>
-          <t>27/09/2025</t>
+          <t>28/09/2025</t>
         </is>
       </c>
       <c r="F63" s="8" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -2705,12 +2705,12 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>28/09/2025</t>
+          <t>29/09/2025</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="B65" s="6" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C65" s="6" t="inlineStr">
@@ -2740,12 +2740,12 @@
       </c>
       <c r="D65" s="6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E65" s="7" t="inlineStr">
         <is>
-          <t>29/09/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="F65" s="8" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>05/10/2025</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="B67" s="6" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C67" s="6" t="inlineStr">
@@ -2810,12 +2810,12 @@
       </c>
       <c r="D67" s="6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E67" s="7" t="inlineStr">
         <is>
-          <t>05/10/2025</t>
+          <t>06/10/2025</t>
         </is>
       </c>
       <c r="F67" s="8" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -2845,12 +2845,12 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>06/10/2025</t>
+          <t>11/10/2025</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="B69" s="6" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C69" s="6" t="inlineStr">
@@ -2880,12 +2880,12 @@
       </c>
       <c r="D69" s="6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E69" s="7" t="inlineStr">
         <is>
-          <t>11/10/2025</t>
+          <t>12/10/2025</t>
         </is>
       </c>
       <c r="F69" s="8" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -2915,12 +2915,12 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>12/10/2025</t>
+          <t>13/10/2025</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="B71" s="6" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C71" s="6" t="inlineStr">
@@ -2950,12 +2950,12 @@
       </c>
       <c r="D71" s="6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E71" s="7" t="inlineStr">
         <is>
-          <t>13/10/2025</t>
+          <t>18/10/2025</t>
         </is>
       </c>
       <c r="F71" s="8" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -2985,12 +2985,12 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>18/10/2025</t>
+          <t>19/10/2025</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B73" s="6" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C73" s="6" t="inlineStr">
@@ -3020,12 +3020,12 @@
       </c>
       <c r="D73" s="6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E73" s="7" t="inlineStr">
         <is>
-          <t>19/10/2025</t>
+          <t>20/10/2025</t>
         </is>
       </c>
       <c r="F73" s="8" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -3055,12 +3055,12 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>20/10/2025</t>
+          <t>25/10/2025</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="B75" s="6" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C75" s="6" t="inlineStr">
@@ -3090,12 +3090,12 @@
       </c>
       <c r="D75" s="6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E75" s="7" t="inlineStr">
         <is>
-          <t>25/10/2025</t>
+          <t>26/10/2025</t>
         </is>
       </c>
       <c r="F75" s="8" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -3125,12 +3125,12 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="B77" s="6" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C77" s="6" t="inlineStr">
@@ -3160,12 +3160,12 @@
       </c>
       <c r="D77" s="6" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E77" s="7" t="inlineStr">
         <is>
-          <t>27/10/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="F77" s="8" t="inlineStr">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -3195,12 +3195,12 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>02/11/2025</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="B79" s="6" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="C79" s="6" t="inlineStr">
@@ -3230,12 +3230,12 @@
       </c>
       <c r="D79" s="6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E79" s="7" t="inlineStr">
         <is>
-          <t>02/11/2025</t>
+          <t>03/11/2025</t>
         </is>
       </c>
       <c r="F79" s="8" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>B2b</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -3265,12 +3265,12 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>03/11/2025</t>
+          <t>09/09/2025</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="B81" s="6" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C81" s="6" t="inlineStr">
@@ -3300,12 +3300,12 @@
       </c>
       <c r="D81" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E81" s="7" t="inlineStr">
         <is>
-          <t>06/09/2025</t>
+          <t>10/09/2025</t>
         </is>
       </c>
       <c r="F81" s="8" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -3335,12 +3335,12 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>07/09/2025</t>
+          <t>11/09/2025</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="B83" s="6" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C83" s="6" t="inlineStr">
@@ -3370,12 +3370,12 @@
       </c>
       <c r="D83" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E83" s="7" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>16/09/2025</t>
         </is>
       </c>
       <c r="F83" s="8" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
@@ -3405,12 +3405,12 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>14/09/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="B85" s="6" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C85" s="6" t="inlineStr">
@@ -3440,12 +3440,12 @@
       </c>
       <c r="D85" s="6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E85" s="7" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>18/09/2025</t>
         </is>
       </c>
       <c r="F85" s="8" t="inlineStr">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -3475,12 +3475,12 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>20/09/2025</t>
+          <t>23/09/2025</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
@@ -3500,7 +3500,7 @@
       </c>
       <c r="B87" s="6" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C87" s="6" t="inlineStr">
@@ -3510,12 +3510,12 @@
       </c>
       <c r="D87" s="6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E87" s="7" t="inlineStr">
         <is>
-          <t>21/09/2025</t>
+          <t>24/09/2025</t>
         </is>
       </c>
       <c r="F87" s="8" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -3545,12 +3545,12 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B89" s="6" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C89" s="6" t="inlineStr">
@@ -3580,12 +3580,12 @@
       </c>
       <c r="D89" s="6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E89" s="7" t="inlineStr">
         <is>
-          <t>27/09/2025</t>
+          <t>30/09/2025</t>
         </is>
       </c>
       <c r="F89" s="8" t="inlineStr">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -3615,12 +3615,12 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>28/09/2025</t>
+          <t>01/10/2025</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B91" s="6" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C91" s="6" t="inlineStr">
@@ -3650,12 +3650,12 @@
       </c>
       <c r="D91" s="6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E91" s="7" t="inlineStr">
         <is>
-          <t>29/09/2025</t>
+          <t>02/10/2025</t>
         </is>
       </c>
       <c r="F91" s="8" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -3685,12 +3685,12 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>07/10/2025</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="B93" s="6" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C93" s="6" t="inlineStr">
@@ -3720,12 +3720,12 @@
       </c>
       <c r="D93" s="6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E93" s="7" t="inlineStr">
         <is>
-          <t>05/10/2025</t>
+          <t>08/10/2025</t>
         </is>
       </c>
       <c r="F93" s="8" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
@@ -3755,12 +3755,12 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>06/10/2025</t>
+          <t>09/10/2025</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B95" s="6" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C95" s="6" t="inlineStr">
@@ -3790,12 +3790,12 @@
       </c>
       <c r="D95" s="6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E95" s="7" t="inlineStr">
         <is>
-          <t>11/10/2025</t>
+          <t>14/10/2025</t>
         </is>
       </c>
       <c r="F95" s="8" t="inlineStr">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -3825,12 +3825,12 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>12/10/2025</t>
+          <t>15/10/2025</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B97" s="6" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C97" s="6" t="inlineStr">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="D97" s="6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E97" s="7" t="inlineStr">
         <is>
-          <t>13/10/2025</t>
+          <t>16/10/2025</t>
         </is>
       </c>
       <c r="F97" s="8" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -3895,12 +3895,12 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>18/10/2025</t>
+          <t>21/10/2025</t>
         </is>
       </c>
       <c r="F98" s="4" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B99" s="6" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C99" s="6" t="inlineStr">
@@ -3930,12 +3930,12 @@
       </c>
       <c r="D99" s="6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E99" s="7" t="inlineStr">
         <is>
-          <t>19/10/2025</t>
+          <t>22/10/2025</t>
         </is>
       </c>
       <c r="F99" s="8" t="inlineStr">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -3965,12 +3965,12 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>20/10/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F100" s="4" t="inlineStr">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="B101" s="6" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C101" s="6" t="inlineStr">
@@ -4000,12 +4000,12 @@
       </c>
       <c r="D101" s="6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E101" s="7" t="inlineStr">
         <is>
-          <t>25/10/2025</t>
+          <t>28/10/2025</t>
         </is>
       </c>
       <c r="F101" s="8" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
@@ -4035,12 +4035,12 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>29/10/2025</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="B103" s="6" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C103" s="6" t="inlineStr">
@@ -4070,12 +4070,12 @@
       </c>
       <c r="D103" s="6" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E103" s="7" t="inlineStr">
         <is>
-          <t>27/10/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="F103" s="8" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>04/11/2025</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="B105" s="6" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C105" s="6" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="D105" s="6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E105" s="7" t="inlineStr">
         <is>
-          <t>02/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="F105" s="8" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>B2c</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -4175,20 +4175,1802 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>06/11/2025</t>
+        </is>
+      </c>
+      <c r="F106" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G106" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B107" s="6" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C107" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D107" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E107" s="7" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="F107" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G107" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>10/09/2025</t>
+        </is>
+      </c>
+      <c r="F108" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G108" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B109" s="6" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C109" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D109" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E109" s="7" t="inlineStr">
+        <is>
+          <t>11/09/2025</t>
+        </is>
+      </c>
+      <c r="F109" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G109" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="F110" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G110" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B111" s="6" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C111" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D111" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E111" s="7" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="F111" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G111" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="F112" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G112" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B113" s="6" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C113" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D113" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E113" s="7" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="F113" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G113" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="F114" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G114" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B115" s="6" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C115" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D115" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E115" s="7" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="F115" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G115" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="F116" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G116" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B117" s="6" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C117" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D117" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E117" s="7" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="F117" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G117" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
+      <c r="F118" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G118" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B119" s="6" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C119" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D119" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E119" s="7" t="inlineStr">
+        <is>
+          <t>07/10/2025</t>
+        </is>
+      </c>
+      <c r="F119" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G119" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
+      <c r="F120" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G120" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B121" s="6" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C121" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D121" s="6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E121" s="7" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
+      <c r="F121" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G121" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="F122" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G122" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B123" s="6" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C123" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D123" s="6" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E123" s="7" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="F123" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G123" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G124" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B125" s="6" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C125" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D125" s="6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E125" s="7" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="F125" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G125" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="F126" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G126" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B127" s="6" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C127" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D127" s="6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E127" s="7" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="F127" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G127" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="inlineStr">
+        <is>
+          <t>28/10/2025</t>
+        </is>
+      </c>
+      <c r="F128" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G128" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B129" s="6" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C129" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D129" s="6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E129" s="7" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="F129" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G129" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="F130" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G130" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B131" s="6" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C131" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D131" s="6" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E131" s="7" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="F131" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G131" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E106" s="3" t="inlineStr">
-        <is>
-          <t>03/11/2025</t>
-        </is>
-      </c>
-      <c r="F106" s="4" t="inlineStr">
-        <is>
-          <t>10:30:00</t>
-        </is>
-      </c>
-      <c r="G106" s="5" t="n">
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="F132" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G132" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B133" s="6" t="inlineStr">
+        <is>
+          <t>B2E</t>
+        </is>
+      </c>
+      <c r="C133" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D133" s="6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E133" s="7" t="inlineStr">
+        <is>
+          <t>06/11/2025</t>
+        </is>
+      </c>
+      <c r="F133" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G133" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="F134" s="4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G134" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B135" s="6" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C135" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D135" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E135" s="7" t="inlineStr">
+        <is>
+          <t>10/09/2025</t>
+        </is>
+      </c>
+      <c r="F135" s="8" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G135" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>11/09/2025</t>
+        </is>
+      </c>
+      <c r="F136" s="4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G136" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B137" s="6" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C137" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D137" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E137" s="7" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="F137" s="8" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G137" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E138" s="3" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="F138" s="4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G138" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B139" s="6" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C139" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D139" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E139" s="7" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="F139" s="8" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G139" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="F140" s="4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G140" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B141" s="6" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C141" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D141" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E141" s="7" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="F141" s="8" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G141" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E142" s="3" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="F142" s="4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G142" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B143" s="6" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C143" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D143" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E143" s="7" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="F143" s="8" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G143" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E144" s="3" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="F144" s="4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G144" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B145" s="6" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C145" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D145" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="E145" s="7" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
+      <c r="F145" s="8" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G145" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E146" s="3" t="inlineStr">
+        <is>
+          <t>07/10/2025</t>
+        </is>
+      </c>
+      <c r="F146" s="4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G146" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B147" s="6" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C147" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D147" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E147" s="7" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
+      <c r="F147" s="8" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G147" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
+      <c r="F148" s="4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G148" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B149" s="6" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C149" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D149" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E149" s="7" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="F149" s="8" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G149" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="F150" s="4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G150" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B151" s="6" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C151" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D151" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E151" s="7" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="F151" s="8" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G151" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E152" s="3" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="F152" s="4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G152" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B153" s="6" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C153" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D153" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E153" s="7" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="F153" s="8" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G153" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="F154" s="4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G154" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B155" s="6" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C155" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D155" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E155" s="7" t="inlineStr">
+        <is>
+          <t>28/10/2025</t>
+        </is>
+      </c>
+      <c r="F155" s="8" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G155" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E156" s="3" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="F156" s="4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G156" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B157" s="6" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C157" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D157" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E157" s="7" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="F157" s="8" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G157" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="F158" s="4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G158" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B159" s="6" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C159" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D159" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E159" s="7" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="F159" s="8" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G159" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E160" s="3" t="inlineStr">
+        <is>
+          <t>06/11/2025</t>
+        </is>
+      </c>
+      <c r="F160" s="4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G160" s="5" t="n">
         <v>180</v>
       </c>
     </row>

--- a/modules_schedules/Y4_B2526_General_&_Special_surgery_1_schedule.xlsx
+++ b/modules_schedules/Y4_B2526_General_&_Special_surgery_1_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21344338-BC34-41BD-B6A9-67B525ECBD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0226E57D-6DC3-4D53-A736-F2D4E2EEE5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_&amp;_Special_surgery_1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="95">
   <si>
     <t>Year</t>
   </si>
@@ -256,9 +256,6 @@
     <t>08/10/2025</t>
   </si>
   <si>
-    <t>09/10/2025</t>
-  </si>
-  <si>
     <t>14/10/2025</t>
   </si>
   <si>
@@ -290,9 +287,6 @@
   </si>
   <si>
     <t>05/11/2025</t>
-  </si>
-  <si>
-    <t>27</t>
   </si>
   <si>
     <t>06/11/2025</t>
@@ -699,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -742,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -765,7 +759,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -788,7 +782,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -811,7 +805,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
@@ -834,7 +828,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -857,7 +851,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -880,7 +874,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -903,7 +897,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -926,7 +920,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -949,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>8</v>
@@ -972,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -995,7 +989,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>8</v>
@@ -1018,7 +1012,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -1041,7 +1035,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>8</v>
@@ -1064,7 +1058,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
@@ -1087,7 +1081,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>8</v>
@@ -1110,7 +1104,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
@@ -1133,7 +1127,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>8</v>
@@ -1156,7 +1150,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
@@ -1179,7 +1173,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>8</v>
@@ -1202,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
@@ -1225,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>8</v>
@@ -1248,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>8</v>
@@ -1271,7 +1265,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>8</v>
@@ -1294,7 +1288,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>8</v>
@@ -1317,7 +1311,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>8</v>
@@ -1340,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
@@ -1363,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>8</v>
@@ -1386,7 +1380,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
@@ -1409,7 +1403,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>8</v>
@@ -1432,7 +1426,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
@@ -1455,7 +1449,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>8</v>
@@ -1478,7 +1472,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
@@ -1501,7 +1495,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>8</v>
@@ -1524,7 +1518,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>8</v>
@@ -1547,7 +1541,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>8</v>
@@ -1570,7 +1564,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>8</v>
@@ -1593,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>8</v>
@@ -1616,7 +1610,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
@@ -1639,7 +1633,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>8</v>
@@ -1662,7 +1656,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
@@ -1685,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>8</v>
@@ -1708,7 +1702,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
@@ -1731,7 +1725,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>8</v>
@@ -1754,7 +1748,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
@@ -1777,7 +1771,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>8</v>
@@ -1800,7 +1794,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>8</v>
@@ -1823,7 +1817,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>8</v>
@@ -1846,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>8</v>
@@ -1869,7 +1863,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>8</v>
@@ -1892,7 +1886,7 @@
         <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
@@ -1915,7 +1909,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>8</v>
@@ -2854,600 +2848,600 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94" s="2" t="s">
+      <c r="A94" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" s="5">
+      <c r="F94" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" s="6" t="s">
+      <c r="A95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F95" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" s="9">
+      <c r="F95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96" s="2" t="s">
+      <c r="A96" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" s="5">
+      <c r="F96" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="6" t="s">
+      <c r="A97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F97" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" s="9">
+      <c r="F97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98" s="2" t="s">
+      <c r="A98" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" s="5">
+      <c r="F98" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" s="6" t="s">
+      <c r="A99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F99" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" s="9">
+      <c r="F99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100" s="2" t="s">
+      <c r="A100" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" s="5">
+      <c r="F100" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101" s="6" t="s">
+      <c r="A101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F101" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" s="9">
+      <c r="F101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102" s="2" t="s">
+      <c r="A102" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="5">
+      <c r="F102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103" s="6" t="s">
+      <c r="A103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F103" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" s="9">
+      <c r="F103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" s="2" t="s">
+      <c r="A104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" s="5">
+      <c r="F104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" s="6" t="s">
+      <c r="A105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F105" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" s="9">
+      <c r="F105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C106" s="2" t="s">
+      <c r="A106" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" s="9">
+        <v>12</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C108" s="2" t="s">
+      <c r="A108" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" s="5">
+        <v>14</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C109" s="6" t="s">
+      <c r="A109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" s="9">
+        <v>16</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C110" s="2" t="s">
+      <c r="A110" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" s="5">
+        <v>18</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C111" s="6" t="s">
+      <c r="A111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" s="9">
+        <v>20</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C112" s="2" t="s">
+      <c r="A112" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" s="5">
+        <v>22</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C113" s="6" t="s">
+      <c r="A113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" s="9">
+        <v>24</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C114" s="2" t="s">
+      <c r="A114" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" s="5">
+        <v>26</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C115" s="6" t="s">
+      <c r="A115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" s="9">
+        <v>28</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C116" s="2" t="s">
+      <c r="A116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" s="5">
+        <v>30</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C117" s="6" t="s">
+      <c r="A117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" s="9">
+        <v>32</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C118" s="2" t="s">
+      <c r="A118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" s="5">
+        <v>34</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C119" s="6" t="s">
+      <c r="A119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" s="9">
+        <v>36</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="5">
         <v>180</v>
       </c>
     </row>
@@ -3456,16 +3450,16 @@
         <v>7</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>11</v>
@@ -3479,16 +3473,16 @@
         <v>7</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F121" s="8" t="s">
         <v>11</v>
@@ -3502,16 +3496,16 @@
         <v>7</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>11</v>
@@ -3525,16 +3519,16 @@
         <v>7</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F123" s="8" t="s">
         <v>11</v>
@@ -3548,16 +3542,16 @@
         <v>7</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>11</v>
@@ -3571,16 +3565,16 @@
         <v>7</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>11</v>
@@ -3594,16 +3588,16 @@
         <v>7</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>11</v>
@@ -3617,16 +3611,16 @@
         <v>7</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>11</v>
@@ -3640,16 +3634,16 @@
         <v>7</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>11</v>
@@ -3663,16 +3657,16 @@
         <v>7</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>11</v>
@@ -3686,16 +3680,16 @@
         <v>7</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>11</v>
@@ -3709,16 +3703,16 @@
         <v>7</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>11</v>
@@ -3732,19 +3726,19 @@
         <v>7</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>11</v>
+        <v>64</v>
+      </c>
+      <c r="F132" s="4">
+        <v>0.4375</v>
       </c>
       <c r="G132" s="5">
         <v>180</v>
@@ -3755,19 +3749,19 @@
         <v>7</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>11</v>
+        <v>65</v>
+      </c>
+      <c r="F133" s="8">
+        <v>0.4375</v>
       </c>
       <c r="G133" s="9">
         <v>180</v>
@@ -3778,16 +3772,16 @@
         <v>7</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D134" s="2">
-        <v>1</v>
+      <c r="D134" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F134" s="4">
         <v>0.4375</v>
@@ -3801,16 +3795,16 @@
         <v>7</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D135" s="6">
-        <v>2</v>
+      <c r="D135" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F135" s="8">
         <v>0.4375</v>
@@ -3824,16 +3818,16 @@
         <v>7</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D136" s="2">
-        <v>3</v>
+      <c r="D136" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F136" s="4">
         <v>0.4375</v>
@@ -3847,16 +3841,16 @@
         <v>7</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D137" s="6">
-        <v>4</v>
+      <c r="D137" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F137" s="8">
         <v>0.4375</v>
@@ -3870,16 +3864,16 @@
         <v>7</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D138" s="2">
-        <v>5</v>
+      <c r="D138" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F138" s="4">
         <v>0.4375</v>
@@ -3893,16 +3887,16 @@
         <v>7</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D139" s="6">
-        <v>6</v>
+      <c r="D139" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F139" s="8">
         <v>0.4375</v>
@@ -3916,16 +3910,16 @@
         <v>7</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D140" s="2">
-        <v>7</v>
+      <c r="D140" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F140" s="4">
         <v>0.4375</v>
@@ -3939,16 +3933,16 @@
         <v>7</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D141" s="6">
-        <v>8</v>
+      <c r="D141" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F141" s="8">
         <v>0.4375</v>
@@ -3962,16 +3956,16 @@
         <v>7</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D142" s="2">
-        <v>9</v>
+      <c r="D142" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F142" s="4">
         <v>0.4375</v>
@@ -3985,16 +3979,16 @@
         <v>7</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D143" s="6">
-        <v>10</v>
+      <c r="D143" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F143" s="8">
         <v>0.4375</v>
@@ -4008,16 +4002,16 @@
         <v>7</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D144" s="2">
-        <v>11</v>
+      <c r="D144" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F144" s="4">
         <v>0.4375</v>
@@ -4031,16 +4025,16 @@
         <v>7</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D145" s="6">
-        <v>12</v>
+      <c r="D145" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F145" s="8">
         <v>0.4375</v>
@@ -4050,347 +4044,278 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="2">
-        <v>13</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F146" s="4">
+      <c r="A146" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F146" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G146" s="5">
+      <c r="G146" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="6">
-        <v>14</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F147" s="8">
+      <c r="A147" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F147" s="4">
         <v>0.4375</v>
       </c>
-      <c r="G147" s="9">
+      <c r="G147" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" s="2">
-        <v>15</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F148" s="4">
+      <c r="A148" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F148" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G148" s="5">
+      <c r="G148" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" s="6">
-        <v>16</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F149" s="8">
+      <c r="A149" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F149" s="4">
         <v>0.4375</v>
       </c>
-      <c r="G149" s="9">
+      <c r="G149" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="2">
-        <v>17</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F150" s="4">
+      <c r="A150" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F150" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G150" s="5">
+      <c r="G150" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="6">
-        <v>18</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F151" s="8">
+      <c r="A151" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F151" s="4">
         <v>0.4375</v>
       </c>
-      <c r="G151" s="9">
+      <c r="G151" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="2">
-        <v>19</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F152" s="4">
+      <c r="A152" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F152" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G152" s="5">
+      <c r="G152" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="6">
-        <v>20</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F153" s="8">
+      <c r="A153" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F153" s="4">
         <v>0.4375</v>
       </c>
-      <c r="G153" s="9">
+      <c r="G153" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="2">
-        <v>21</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F154" s="4">
+      <c r="A154" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F154" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G154" s="5">
+      <c r="G154" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="6">
-        <v>22</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F155" s="8">
+      <c r="A155" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F155" s="4">
         <v>0.4375</v>
       </c>
-      <c r="G155" s="9">
+      <c r="G155" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="2">
-        <v>23</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F156" s="4">
+      <c r="A156" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F156" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G156" s="5">
+      <c r="G156" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="6">
-        <v>24</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F157" s="8">
+      <c r="A157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F157" s="4">
         <v>0.4375</v>
       </c>
-      <c r="G157" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="2">
-        <v>25</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F158" s="4">
-        <v>0.4375</v>
-      </c>
-      <c r="G158" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="6">
-        <v>26</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F159" s="8">
-        <v>0.4375</v>
-      </c>
-      <c r="G159" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="2">
-        <v>27</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F160" s="4">
-        <v>0.4375</v>
-      </c>
-      <c r="G160" s="5">
+      <c r="G157" s="5">
         <v>180</v>
       </c>
     </row>

--- a/modules_schedules/Y4_B2526_General_&_Special_surgery_1_schedule.xlsx
+++ b/modules_schedules/Y4_B2526_General_&_Special_surgery_1_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0226E57D-6DC3-4D53-A736-F2D4E2EEE5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7D492B-64A8-4BA6-86FC-0F9067B1222D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_&amp;_Special_surgery_1" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -386,9 +386,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -751,7 +748,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -773,8 +770,8 @@
       <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9">
-        <v>180</v>
+      <c r="G3" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -797,7 +794,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -819,8 +816,8 @@
       <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="9">
-        <v>180</v>
+      <c r="G5" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -843,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -865,8 +862,8 @@
       <c r="F7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="9">
-        <v>180</v>
+      <c r="G7" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -889,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -911,8 +908,8 @@
       <c r="F9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9">
-        <v>180</v>
+      <c r="G9" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -935,7 +932,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -957,8 +954,8 @@
       <c r="F11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="9">
-        <v>180</v>
+      <c r="G11" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -981,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1003,8 +1000,8 @@
       <c r="F13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="9">
-        <v>180</v>
+      <c r="G13" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1027,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1049,8 +1046,8 @@
       <c r="F15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="9">
-        <v>180</v>
+      <c r="G15" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1073,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1095,8 +1092,8 @@
       <c r="F17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="9">
-        <v>180</v>
+      <c r="G17" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1119,7 +1116,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1141,8 +1138,8 @@
       <c r="F19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="9">
-        <v>180</v>
+      <c r="G19" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1165,7 +1162,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1187,8 +1184,8 @@
       <c r="F21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="9">
-        <v>180</v>
+      <c r="G21" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1211,7 +1208,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1233,8 +1230,8 @@
       <c r="F23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="9">
-        <v>180</v>
+      <c r="G23" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1257,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1279,8 +1276,8 @@
       <c r="F25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="9">
-        <v>180</v>
+      <c r="G25" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1303,7 +1300,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1325,8 +1322,8 @@
       <c r="F27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="9">
-        <v>180</v>
+      <c r="G27" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1349,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1371,8 +1368,8 @@
       <c r="F29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="9">
-        <v>180</v>
+      <c r="G29" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1395,7 +1392,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1417,8 +1414,8 @@
       <c r="F31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="9">
-        <v>180</v>
+      <c r="G31" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1441,7 +1438,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -1463,8 +1460,8 @@
       <c r="F33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="9">
-        <v>180</v>
+      <c r="G33" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -1487,7 +1484,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -1509,8 +1506,8 @@
       <c r="F35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="9">
-        <v>180</v>
+      <c r="G35" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -1533,7 +1530,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -1555,8 +1552,8 @@
       <c r="F37" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="9">
-        <v>180</v>
+      <c r="G37" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -1579,7 +1576,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -1601,8 +1598,8 @@
       <c r="F39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="9">
-        <v>180</v>
+      <c r="G39" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -1625,7 +1622,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -1647,8 +1644,8 @@
       <c r="F41" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="9">
-        <v>180</v>
+      <c r="G41" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -1671,7 +1668,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -1693,8 +1690,8 @@
       <c r="F43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="9">
-        <v>180</v>
+      <c r="G43" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -1717,7 +1714,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -1739,8 +1736,8 @@
       <c r="F45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="9">
-        <v>180</v>
+      <c r="G45" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -1763,7 +1760,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -1785,8 +1782,8 @@
       <c r="F47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="9">
-        <v>180</v>
+      <c r="G47" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -1809,7 +1806,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -1831,8 +1828,8 @@
       <c r="F49" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="9">
-        <v>180</v>
+      <c r="G49" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -1855,7 +1852,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -1877,8 +1874,8 @@
       <c r="F51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="9">
-        <v>180</v>
+      <c r="G51" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -1901,7 +1898,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -1923,8 +1920,8 @@
       <c r="F53" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="9">
-        <v>180</v>
+      <c r="G53" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -1947,7 +1944,7 @@
         <v>11</v>
       </c>
       <c r="G54" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -1969,8 +1966,8 @@
       <c r="F55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="9">
-        <v>180</v>
+      <c r="G55" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -1993,7 +1990,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -2015,8 +2012,8 @@
       <c r="F57" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="9">
-        <v>180</v>
+      <c r="G57" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -2039,7 +2036,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -2061,8 +2058,8 @@
       <c r="F59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="9">
-        <v>180</v>
+      <c r="G59" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -2085,7 +2082,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -2107,8 +2104,8 @@
       <c r="F61" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="9">
-        <v>180</v>
+      <c r="G61" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -2131,7 +2128,7 @@
         <v>11</v>
       </c>
       <c r="G62" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -2153,8 +2150,8 @@
       <c r="F63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="9">
-        <v>180</v>
+      <c r="G63" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -2177,7 +2174,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -2199,8 +2196,8 @@
       <c r="F65" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="9">
-        <v>180</v>
+      <c r="G65" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -2223,7 +2220,7 @@
         <v>11</v>
       </c>
       <c r="G66" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -2245,8 +2242,8 @@
       <c r="F67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="9">
-        <v>180</v>
+      <c r="G67" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -2269,7 +2266,7 @@
         <v>11</v>
       </c>
       <c r="G68" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -2291,8 +2288,8 @@
       <c r="F69" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="9">
-        <v>180</v>
+      <c r="G69" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -2315,7 +2312,7 @@
         <v>11</v>
       </c>
       <c r="G70" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -2337,8 +2334,8 @@
       <c r="F71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="9">
-        <v>180</v>
+      <c r="G71" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -2361,7 +2358,7 @@
         <v>11</v>
       </c>
       <c r="G72" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -2383,8 +2380,8 @@
       <c r="F73" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="9">
-        <v>180</v>
+      <c r="G73" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -2407,7 +2404,7 @@
         <v>11</v>
       </c>
       <c r="G74" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -2429,8 +2426,8 @@
       <c r="F75" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="9">
-        <v>180</v>
+      <c r="G75" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -2453,7 +2450,7 @@
         <v>11</v>
       </c>
       <c r="G76" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -2475,8 +2472,8 @@
       <c r="F77" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="9">
-        <v>180</v>
+      <c r="G77" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -2499,7 +2496,7 @@
         <v>11</v>
       </c>
       <c r="G78" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -2521,8 +2518,8 @@
       <c r="F79" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G79" s="9">
-        <v>180</v>
+      <c r="G79" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -2545,7 +2542,7 @@
         <v>11</v>
       </c>
       <c r="G80" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -2567,8 +2564,8 @@
       <c r="F81" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G81" s="9">
-        <v>180</v>
+      <c r="G81" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -2591,7 +2588,7 @@
         <v>11</v>
       </c>
       <c r="G82" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -2613,8 +2610,8 @@
       <c r="F83" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G83" s="9">
-        <v>180</v>
+      <c r="G83" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -2637,7 +2634,7 @@
         <v>11</v>
       </c>
       <c r="G84" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -2659,8 +2656,8 @@
       <c r="F85" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G85" s="9">
-        <v>180</v>
+      <c r="G85" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -2683,7 +2680,7 @@
         <v>11</v>
       </c>
       <c r="G86" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -2705,8 +2702,8 @@
       <c r="F87" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G87" s="9">
-        <v>180</v>
+      <c r="G87" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -2729,7 +2726,7 @@
         <v>11</v>
       </c>
       <c r="G88" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -2751,8 +2748,8 @@
       <c r="F89" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G89" s="9">
-        <v>180</v>
+      <c r="G89" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -2775,7 +2772,7 @@
         <v>11</v>
       </c>
       <c r="G90" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -2797,8 +2794,8 @@
       <c r="F91" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G91" s="9">
-        <v>180</v>
+      <c r="G91" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -2821,7 +2818,7 @@
         <v>11</v>
       </c>
       <c r="G92" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -2843,8 +2840,8 @@
       <c r="F93" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G93" s="9">
-        <v>180</v>
+      <c r="G93" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -2866,8 +2863,8 @@
       <c r="F94" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G94" s="9">
-        <v>180</v>
+      <c r="G94" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -2890,7 +2887,7 @@
         <v>11</v>
       </c>
       <c r="G95" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -2912,8 +2909,8 @@
       <c r="F96" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G96" s="9">
-        <v>180</v>
+      <c r="G96" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -2936,7 +2933,7 @@
         <v>11</v>
       </c>
       <c r="G97" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -2958,8 +2955,8 @@
       <c r="F98" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G98" s="9">
-        <v>180</v>
+      <c r="G98" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -2982,7 +2979,7 @@
         <v>11</v>
       </c>
       <c r="G99" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -3004,8 +3001,8 @@
       <c r="F100" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G100" s="9">
-        <v>180</v>
+      <c r="G100" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -3028,7 +3025,7 @@
         <v>11</v>
       </c>
       <c r="G101" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -3050,8 +3047,8 @@
       <c r="F102" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G102" s="9">
-        <v>180</v>
+      <c r="G102" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -3074,7 +3071,7 @@
         <v>11</v>
       </c>
       <c r="G103" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -3096,8 +3093,8 @@
       <c r="F104" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G104" s="9">
-        <v>180</v>
+      <c r="G104" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -3120,7 +3117,7 @@
         <v>11</v>
       </c>
       <c r="G105" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -3142,8 +3139,8 @@
       <c r="F106" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G106" s="9">
-        <v>180</v>
+      <c r="G106" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -3166,7 +3163,7 @@
         <v>11</v>
       </c>
       <c r="G107" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -3188,8 +3185,8 @@
       <c r="F108" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G108" s="9">
-        <v>180</v>
+      <c r="G108" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -3212,7 +3209,7 @@
         <v>11</v>
       </c>
       <c r="G109" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -3234,8 +3231,8 @@
       <c r="F110" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G110" s="9">
-        <v>180</v>
+      <c r="G110" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -3258,7 +3255,7 @@
         <v>11</v>
       </c>
       <c r="G111" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -3280,8 +3277,8 @@
       <c r="F112" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G112" s="9">
-        <v>180</v>
+      <c r="G112" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
@@ -3304,7 +3301,7 @@
         <v>11</v>
       </c>
       <c r="G113" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -3326,8 +3323,8 @@
       <c r="F114" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G114" s="9">
-        <v>180</v>
+      <c r="G114" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
@@ -3350,7 +3347,7 @@
         <v>11</v>
       </c>
       <c r="G115" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -3372,8 +3369,8 @@
       <c r="F116" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G116" s="9">
-        <v>180</v>
+      <c r="G116" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
@@ -3396,7 +3393,7 @@
         <v>11</v>
       </c>
       <c r="G117" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -3418,8 +3415,8 @@
       <c r="F118" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G118" s="9">
-        <v>180</v>
+      <c r="G118" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -3442,7 +3439,7 @@
         <v>11</v>
       </c>
       <c r="G119" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -3465,7 +3462,7 @@
         <v>11</v>
       </c>
       <c r="G120" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
@@ -3487,8 +3484,8 @@
       <c r="F121" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G121" s="9">
-        <v>180</v>
+      <c r="G121" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
@@ -3511,7 +3508,7 @@
         <v>11</v>
       </c>
       <c r="G122" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
@@ -3533,8 +3530,8 @@
       <c r="F123" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G123" s="9">
-        <v>180</v>
+      <c r="G123" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
@@ -3557,7 +3554,7 @@
         <v>11</v>
       </c>
       <c r="G124" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -3579,8 +3576,8 @@
       <c r="F125" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G125" s="9">
-        <v>180</v>
+      <c r="G125" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
@@ -3603,7 +3600,7 @@
         <v>11</v>
       </c>
       <c r="G126" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
@@ -3625,8 +3622,8 @@
       <c r="F127" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G127" s="9">
-        <v>180</v>
+      <c r="G127" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
@@ -3649,7 +3646,7 @@
         <v>11</v>
       </c>
       <c r="G128" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
@@ -3671,8 +3668,8 @@
       <c r="F129" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G129" s="9">
-        <v>180</v>
+      <c r="G129" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
@@ -3695,7 +3692,7 @@
         <v>11</v>
       </c>
       <c r="G130" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
@@ -3717,8 +3714,8 @@
       <c r="F131" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G131" s="9">
-        <v>180</v>
+      <c r="G131" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
@@ -3741,7 +3738,7 @@
         <v>0.4375</v>
       </c>
       <c r="G132" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
@@ -3763,8 +3760,8 @@
       <c r="F133" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G133" s="9">
-        <v>180</v>
+      <c r="G133" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -3787,7 +3784,7 @@
         <v>0.4375</v>
       </c>
       <c r="G134" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
@@ -3809,8 +3806,8 @@
       <c r="F135" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G135" s="9">
-        <v>180</v>
+      <c r="G135" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
@@ -3833,7 +3830,7 @@
         <v>0.4375</v>
       </c>
       <c r="G136" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
@@ -3855,8 +3852,8 @@
       <c r="F137" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G137" s="9">
-        <v>180</v>
+      <c r="G137" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
@@ -3879,7 +3876,7 @@
         <v>0.4375</v>
       </c>
       <c r="G138" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
@@ -3901,8 +3898,8 @@
       <c r="F139" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G139" s="9">
-        <v>180</v>
+      <c r="G139" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
@@ -3925,7 +3922,7 @@
         <v>0.4375</v>
       </c>
       <c r="G140" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
@@ -3947,8 +3944,8 @@
       <c r="F141" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G141" s="9">
-        <v>180</v>
+      <c r="G141" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
@@ -3971,7 +3968,7 @@
         <v>0.4375</v>
       </c>
       <c r="G142" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
@@ -3993,8 +3990,8 @@
       <c r="F143" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G143" s="9">
-        <v>180</v>
+      <c r="G143" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
@@ -4017,7 +4014,7 @@
         <v>0.4375</v>
       </c>
       <c r="G144" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
@@ -4039,8 +4036,8 @@
       <c r="F145" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G145" s="9">
-        <v>180</v>
+      <c r="G145" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
@@ -4062,8 +4059,8 @@
       <c r="F146" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G146" s="9">
-        <v>180</v>
+      <c r="G146" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
@@ -4086,7 +4083,7 @@
         <v>0.4375</v>
       </c>
       <c r="G147" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
@@ -4108,8 +4105,8 @@
       <c r="F148" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G148" s="9">
-        <v>180</v>
+      <c r="G148" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
@@ -4132,7 +4129,7 @@
         <v>0.4375</v>
       </c>
       <c r="G149" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
@@ -4154,8 +4151,8 @@
       <c r="F150" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G150" s="9">
-        <v>180</v>
+      <c r="G150" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
@@ -4178,7 +4175,7 @@
         <v>0.4375</v>
       </c>
       <c r="G151" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
@@ -4200,8 +4197,8 @@
       <c r="F152" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G152" s="9">
-        <v>180</v>
+      <c r="G152" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
@@ -4224,7 +4221,7 @@
         <v>0.4375</v>
       </c>
       <c r="G153" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
@@ -4246,8 +4243,8 @@
       <c r="F154" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G154" s="9">
-        <v>180</v>
+      <c r="G154" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
@@ -4270,7 +4267,7 @@
         <v>0.4375</v>
       </c>
       <c r="G155" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
@@ -4292,8 +4289,8 @@
       <c r="F156" s="8">
         <v>0.4375</v>
       </c>
-      <c r="G156" s="9">
-        <v>180</v>
+      <c r="G156" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
@@ -4316,7 +4313,7 @@
         <v>0.4375</v>
       </c>
       <c r="G157" s="5">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/modules_schedules/Y4_B2526_General_&_Special_surgery_1_schedule.xlsx
+++ b/modules_schedules/Y4_B2526_General_&_Special_surgery_1_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA65E7E-E97A-4B46-A5DA-E29774BB4478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC56A10-9727-439B-BCF0-776DA19612FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_&amp;_Special_surgery_1" sheetId="1" r:id="rId1"/>
@@ -757,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -780,7 +780,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -803,7 +803,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -826,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -849,7 +849,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -872,7 +872,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -895,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -918,7 +918,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -941,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -964,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -987,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1010,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1033,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1056,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1079,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1102,7 +1102,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1125,7 +1125,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1148,7 +1148,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1171,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1194,7 +1194,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1217,7 +1217,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1240,7 +1240,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1263,7 +1263,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1286,7 +1286,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1309,7 +1309,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1332,7 +1332,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1355,7 +1355,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1378,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1401,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1424,7 +1424,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1447,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -1493,7 +1493,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -1516,7 +1516,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -1539,7 +1539,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -1562,7 +1562,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -1585,7 +1585,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -1608,7 +1608,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -1631,7 +1631,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -1654,7 +1654,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -1677,7 +1677,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -1700,7 +1700,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -1723,7 +1723,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -1746,7 +1746,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -1769,7 +1769,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -1792,7 +1792,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -1815,7 +1815,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -1838,7 +1838,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -1861,7 +1861,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -1884,7 +1884,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -1907,7 +1907,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -1930,7 +1930,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -1953,7 +1953,7 @@
         <v>11</v>
       </c>
       <c r="G54" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -1976,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -1999,7 +1999,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -2022,7 +2022,7 @@
         <v>11</v>
       </c>
       <c r="G57" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -2045,7 +2045,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -2068,7 +2068,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -2091,7 +2091,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -2114,7 +2114,7 @@
         <v>11</v>
       </c>
       <c r="G61" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -2137,7 +2137,7 @@
         <v>11</v>
       </c>
       <c r="G62" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -2160,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -2183,7 +2183,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -2206,7 +2206,7 @@
         <v>11</v>
       </c>
       <c r="G65" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -2229,7 +2229,7 @@
         <v>11</v>
       </c>
       <c r="G66" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -2252,7 +2252,7 @@
         <v>11</v>
       </c>
       <c r="G67" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -2275,7 +2275,7 @@
         <v>11</v>
       </c>
       <c r="G68" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -2298,7 +2298,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -2321,7 +2321,7 @@
         <v>11</v>
       </c>
       <c r="G70" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -2344,7 +2344,7 @@
         <v>11</v>
       </c>
       <c r="G71" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -2367,7 +2367,7 @@
         <v>11</v>
       </c>
       <c r="G72" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -2390,7 +2390,7 @@
         <v>11</v>
       </c>
       <c r="G73" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -2413,7 +2413,7 @@
         <v>11</v>
       </c>
       <c r="G74" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -2436,7 +2436,7 @@
         <v>11</v>
       </c>
       <c r="G75" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -2459,7 +2459,7 @@
         <v>11</v>
       </c>
       <c r="G76" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -2482,7 +2482,7 @@
         <v>11</v>
       </c>
       <c r="G77" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -2505,7 +2505,7 @@
         <v>11</v>
       </c>
       <c r="G78" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -2528,7 +2528,7 @@
         <v>11</v>
       </c>
       <c r="G79" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -2551,7 +2551,7 @@
         <v>11</v>
       </c>
       <c r="G80" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -2574,7 +2574,7 @@
         <v>11</v>
       </c>
       <c r="G81" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -2597,7 +2597,7 @@
         <v>11</v>
       </c>
       <c r="G82" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -2620,7 +2620,7 @@
         <v>11</v>
       </c>
       <c r="G83" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -2643,7 +2643,7 @@
         <v>11</v>
       </c>
       <c r="G84" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -2666,7 +2666,7 @@
         <v>11</v>
       </c>
       <c r="G85" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -2689,7 +2689,7 @@
         <v>11</v>
       </c>
       <c r="G86" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -2712,7 +2712,7 @@
         <v>11</v>
       </c>
       <c r="G87" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -2735,7 +2735,7 @@
         <v>11</v>
       </c>
       <c r="G88" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -2758,7 +2758,7 @@
         <v>11</v>
       </c>
       <c r="G89" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -2781,7 +2781,7 @@
         <v>11</v>
       </c>
       <c r="G90" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -2804,7 +2804,7 @@
         <v>11</v>
       </c>
       <c r="G91" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -2827,7 +2827,7 @@
         <v>11</v>
       </c>
       <c r="G92" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -2850,7 +2850,7 @@
         <v>11</v>
       </c>
       <c r="G93" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -2873,7 +2873,7 @@
         <v>11</v>
       </c>
       <c r="G94" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -2896,7 +2896,7 @@
         <v>11</v>
       </c>
       <c r="G95" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -2919,7 +2919,7 @@
         <v>11</v>
       </c>
       <c r="G96" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -2942,7 +2942,7 @@
         <v>11</v>
       </c>
       <c r="G97" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -2965,7 +2965,7 @@
         <v>11</v>
       </c>
       <c r="G98" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -2988,7 +2988,7 @@
         <v>11</v>
       </c>
       <c r="G99" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -3011,7 +3011,7 @@
         <v>11</v>
       </c>
       <c r="G100" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -3034,7 +3034,7 @@
         <v>11</v>
       </c>
       <c r="G101" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -3057,7 +3057,7 @@
         <v>11</v>
       </c>
       <c r="G102" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -3080,7 +3080,7 @@
         <v>11</v>
       </c>
       <c r="G103" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -3103,7 +3103,7 @@
         <v>11</v>
       </c>
       <c r="G104" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -3126,7 +3126,7 @@
         <v>11</v>
       </c>
       <c r="G105" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -3149,7 +3149,7 @@
         <v>11</v>
       </c>
       <c r="G106" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -3172,7 +3172,7 @@
         <v>11</v>
       </c>
       <c r="G107" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -3195,7 +3195,7 @@
         <v>11</v>
       </c>
       <c r="G108" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -3218,7 +3218,7 @@
         <v>11</v>
       </c>
       <c r="G109" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -3241,7 +3241,7 @@
         <v>11</v>
       </c>
       <c r="G110" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -3264,7 +3264,7 @@
         <v>11</v>
       </c>
       <c r="G111" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -3287,7 +3287,7 @@
         <v>11</v>
       </c>
       <c r="G112" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
@@ -3310,7 +3310,7 @@
         <v>11</v>
       </c>
       <c r="G113" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -3333,7 +3333,7 @@
         <v>11</v>
       </c>
       <c r="G114" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
@@ -3356,7 +3356,7 @@
         <v>11</v>
       </c>
       <c r="G115" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -3379,7 +3379,7 @@
         <v>11</v>
       </c>
       <c r="G116" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
@@ -3402,7 +3402,7 @@
         <v>11</v>
       </c>
       <c r="G117" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -3425,7 +3425,7 @@
         <v>11</v>
       </c>
       <c r="G118" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -3448,7 +3448,7 @@
         <v>11</v>
       </c>
       <c r="G119" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -3471,7 +3471,7 @@
         <v>11</v>
       </c>
       <c r="G120" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
@@ -3494,7 +3494,7 @@
         <v>11</v>
       </c>
       <c r="G121" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
@@ -3517,7 +3517,7 @@
         <v>11</v>
       </c>
       <c r="G122" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
@@ -3540,7 +3540,7 @@
         <v>11</v>
       </c>
       <c r="G123" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
@@ -3563,7 +3563,7 @@
         <v>11</v>
       </c>
       <c r="G124" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -3586,7 +3586,7 @@
         <v>11</v>
       </c>
       <c r="G125" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
@@ -3609,7 +3609,7 @@
         <v>11</v>
       </c>
       <c r="G126" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
@@ -3632,7 +3632,7 @@
         <v>11</v>
       </c>
       <c r="G127" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
@@ -3655,7 +3655,7 @@
         <v>11</v>
       </c>
       <c r="G128" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
@@ -3678,7 +3678,7 @@
         <v>11</v>
       </c>
       <c r="G129" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
@@ -3701,7 +3701,7 @@
         <v>11</v>
       </c>
       <c r="G130" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
@@ -3724,7 +3724,7 @@
         <v>11</v>
       </c>
       <c r="G131" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
@@ -3747,7 +3747,7 @@
         <v>11</v>
       </c>
       <c r="G132" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
@@ -3770,7 +3770,7 @@
         <v>11</v>
       </c>
       <c r="G133" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -3793,7 +3793,7 @@
         <v>11</v>
       </c>
       <c r="G134" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
@@ -3816,7 +3816,7 @@
         <v>0.4375</v>
       </c>
       <c r="G135" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
@@ -3839,7 +3839,7 @@
         <v>0.4375</v>
       </c>
       <c r="G136" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
@@ -3862,7 +3862,7 @@
         <v>0.4375</v>
       </c>
       <c r="G137" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
@@ -3885,7 +3885,7 @@
         <v>0.4375</v>
       </c>
       <c r="G138" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
@@ -3908,7 +3908,7 @@
         <v>0.4375</v>
       </c>
       <c r="G139" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
@@ -3931,7 +3931,7 @@
         <v>0.4375</v>
       </c>
       <c r="G140" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
@@ -3954,7 +3954,7 @@
         <v>0.4375</v>
       </c>
       <c r="G141" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
@@ -3977,7 +3977,7 @@
         <v>0.4375</v>
       </c>
       <c r="G142" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
@@ -4000,7 +4000,7 @@
         <v>0.4375</v>
       </c>
       <c r="G143" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
@@ -4023,7 +4023,7 @@
         <v>0.4375</v>
       </c>
       <c r="G144" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
@@ -4046,7 +4046,7 @@
         <v>0.4375</v>
       </c>
       <c r="G145" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
@@ -4069,7 +4069,7 @@
         <v>0.4375</v>
       </c>
       <c r="G146" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
@@ -4092,7 +4092,7 @@
         <v>0.4375</v>
       </c>
       <c r="G147" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
@@ -4115,7 +4115,7 @@
         <v>0.4375</v>
       </c>
       <c r="G148" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
@@ -4138,7 +4138,7 @@
         <v>0.4375</v>
       </c>
       <c r="G149" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
@@ -4161,7 +4161,7 @@
         <v>0.4375</v>
       </c>
       <c r="G150" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
@@ -4184,7 +4184,7 @@
         <v>0.4375</v>
       </c>
       <c r="G151" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
@@ -4207,7 +4207,7 @@
         <v>0.4375</v>
       </c>
       <c r="G152" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
@@ -4230,7 +4230,7 @@
         <v>0.4375</v>
       </c>
       <c r="G153" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
@@ -4253,7 +4253,7 @@
         <v>0.4375</v>
       </c>
       <c r="G154" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
@@ -4276,7 +4276,7 @@
         <v>0.4375</v>
       </c>
       <c r="G155" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
@@ -4299,7 +4299,7 @@
         <v>0.4375</v>
       </c>
       <c r="G156" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
@@ -4322,7 +4322,7 @@
         <v>0.4375</v>
       </c>
       <c r="G157" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
@@ -4345,7 +4345,7 @@
         <v>0.4375</v>
       </c>
       <c r="G158" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
@@ -4368,7 +4368,7 @@
         <v>0.4375</v>
       </c>
       <c r="G159" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
@@ -4391,7 +4391,7 @@
         <v>0.4375</v>
       </c>
       <c r="G160" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/modules_schedules/Y4_B2526_General_&_Special_surgery_1_schedule.xlsx
+++ b/modules_schedules/Y4_B2526_General_&_Special_surgery_1_schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC56A10-9727-439B-BCF0-776DA19612FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="585" windowWidth="18285" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="General_&amp;_Special_surgery_1" sheetId="1" r:id="rId1"/>
@@ -313,8 +312,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,15 +373,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -391,12 +390,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,23 +704,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +734,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -737,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -750,63 +757,63 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="9">
         <v>45908</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -819,40 +826,40 @@
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -865,40 +872,40 @@
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -911,40 +918,40 @@
       <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -957,40 +964,40 @@
       <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1003,40 +1010,40 @@
       <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1049,40 +1056,40 @@
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1095,40 +1102,40 @@
       <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="F17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1141,40 +1148,40 @@
       <c r="D19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+      <c r="F19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1187,40 +1194,40 @@
       <c r="D21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+      <c r="F21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1233,40 +1240,40 @@
       <c r="D23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+      <c r="F23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1279,40 +1286,40 @@
       <c r="D25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+      <c r="F25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
@@ -1325,40 +1332,40 @@
       <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+      <c r="F27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -1371,63 +1378,63 @@
       <c r="D29" s="2">
         <v>1</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+      <c r="F29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+      <c r="F30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="9">
         <v>45908</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -1440,40 +1447,40 @@
       <c r="D32" s="2">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+      <c r="F32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="2">
         <v>5</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -1486,40 +1493,40 @@
       <c r="D34" s="2">
         <v>6</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+      <c r="F34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="2">
         <v>7</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1532,40 +1539,40 @@
       <c r="D36" s="2">
         <v>8</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
+      <c r="F36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="2">
         <v>9</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -1578,40 +1585,40 @@
       <c r="D38" s="2">
         <v>10</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
+      <c r="F38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2">
         <v>11</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -1624,40 +1631,40 @@
       <c r="D40" s="2">
         <v>12</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
+      <c r="F40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2">
         <v>13</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
@@ -1670,40 +1677,40 @@
       <c r="D42" s="2">
         <v>14</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
+      <c r="F42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2">
         <v>15</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -1716,40 +1723,40 @@
       <c r="D44" s="2">
         <v>16</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
+      <c r="F44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2">
         <v>17</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
@@ -1762,40 +1769,40 @@
       <c r="D46" s="2">
         <v>18</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
+      <c r="F46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="2">
         <v>19</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -1808,40 +1815,40 @@
       <c r="D48" s="2">
         <v>20</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
+      <c r="F48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="2">
         <v>21</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -1854,40 +1861,40 @@
       <c r="D50" s="2">
         <v>22</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
+      <c r="F50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="2">
         <v>23</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
@@ -1900,40 +1907,40 @@
       <c r="D52" s="2">
         <v>24</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
+      <c r="F52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="2">
         <v>25</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F53" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
         <v>7</v>
       </c>
@@ -1946,40 +1953,40 @@
       <c r="D54" s="2">
         <v>26</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
+      <c r="F54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="2">
         <v>27</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
         <v>7</v>
       </c>
@@ -1992,63 +1999,63 @@
       <c r="D56" s="2">
         <v>1</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="6" t="s">
+      <c r="F56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="2">
         <v>2</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="6" t="s">
+      <c r="F57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="2">
         <v>3</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="9">
         <v>45908</v>
       </c>
-      <c r="F58" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
@@ -2061,40 +2068,40 @@
       <c r="D59" s="2">
         <v>4</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="6" t="s">
+      <c r="F59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="2">
         <v>5</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
@@ -2107,40 +2114,40 @@
       <c r="D61" s="2">
         <v>6</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="6" t="s">
+      <c r="F61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="2">
         <v>7</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
         <v>7</v>
       </c>
@@ -2153,40 +2160,40 @@
       <c r="D63" s="2">
         <v>8</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="6" t="s">
+      <c r="F63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="2">
         <v>9</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
@@ -2199,40 +2206,40 @@
       <c r="D65" s="2">
         <v>10</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="6" t="s">
+      <c r="F65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="2">
         <v>11</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F66" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
@@ -2245,40 +2252,40 @@
       <c r="D67" s="2">
         <v>12</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="6" t="s">
+      <c r="F67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="2">
         <v>13</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F68" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
         <v>7</v>
       </c>
@@ -2291,40 +2298,40 @@
       <c r="D69" s="2">
         <v>14</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="6" t="s">
+      <c r="F69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="2">
         <v>15</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F70" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
@@ -2337,40 +2344,40 @@
       <c r="D71" s="2">
         <v>16</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="6" t="s">
+      <c r="F71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="2">
         <v>17</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F72" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
         <v>7</v>
       </c>
@@ -2383,40 +2390,40 @@
       <c r="D73" s="2">
         <v>18</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="6" t="s">
+      <c r="F73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="2">
         <v>19</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F74" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
         <v>7</v>
       </c>
@@ -2429,40 +2436,40 @@
       <c r="D75" s="2">
         <v>20</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="6" t="s">
+      <c r="F75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="2">
         <v>21</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F76" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
         <v>7</v>
       </c>
@@ -2475,40 +2482,40 @@
       <c r="D77" s="2">
         <v>22</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="6" t="s">
+      <c r="F77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="2">
         <v>23</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F78" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
         <v>7</v>
       </c>
@@ -2521,40 +2528,40 @@
       <c r="D79" s="2">
         <v>24</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="6" t="s">
+      <c r="F79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="2">
         <v>25</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F80" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F80" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
         <v>7</v>
       </c>
@@ -2567,40 +2574,40 @@
       <c r="D81" s="2">
         <v>26</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="6" t="s">
+      <c r="F81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="2">
         <v>27</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F82" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="2" t="s">
         <v>7</v>
       </c>
@@ -2613,40 +2620,40 @@
       <c r="D83" s="2">
         <v>1</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="6" t="s">
+      <c r="F83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F84" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -2659,40 +2666,40 @@
       <c r="D85" s="2">
         <v>3</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="6" t="s">
+      <c r="F85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="2">
         <v>4</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F86" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="2" t="s">
         <v>7</v>
       </c>
@@ -2705,40 +2712,40 @@
       <c r="D87" s="2">
         <v>5</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="6" t="s">
+      <c r="F87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="2">
         <v>6</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F88" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F88" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="2" t="s">
         <v>7</v>
       </c>
@@ -2751,40 +2758,40 @@
       <c r="D89" s="2">
         <v>7</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="6" t="s">
+      <c r="F89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="2">
         <v>8</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F90" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="2" t="s">
         <v>7</v>
       </c>
@@ -2797,40 +2804,40 @@
       <c r="D91" s="2">
         <v>9</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" s="6" t="s">
+      <c r="F91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="2">
         <v>10</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F92" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="2" t="s">
         <v>7</v>
       </c>
@@ -2843,40 +2850,40 @@
       <c r="D93" s="2">
         <v>11</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94" s="6" t="s">
+      <c r="F93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2">
         <v>12</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F94" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
@@ -2889,63 +2896,63 @@
       <c r="D95" s="2">
         <v>13</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96" s="6" t="s">
+      <c r="F95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="2">
         <v>14</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F96" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="6" t="s">
+      <c r="F96" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="2">
         <v>15</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F97" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="2" t="s">
         <v>7</v>
       </c>
@@ -2958,40 +2965,40 @@
       <c r="D98" s="2">
         <v>16</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" s="6" t="s">
+      <c r="F98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="2">
         <v>17</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F99" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
@@ -3004,40 +3011,40 @@
       <c r="D100" s="2">
         <v>18</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101" s="6" t="s">
+      <c r="F100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2">
         <v>19</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F101" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="2" t="s">
         <v>7</v>
       </c>
@@ -3050,40 +3057,40 @@
       <c r="D102" s="2">
         <v>20</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103" s="6" t="s">
+      <c r="F102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="2">
         <v>21</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F103" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F103" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="2" t="s">
         <v>7</v>
       </c>
@@ -3096,40 +3103,40 @@
       <c r="D104" s="2">
         <v>22</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" s="6" t="s">
+      <c r="F104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="2">
         <v>23</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F105" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="2" t="s">
         <v>7</v>
       </c>
@@ -3142,40 +3149,40 @@
       <c r="D106" s="2">
         <v>24</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B107" s="6" t="s">
+      <c r="F106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="2">
         <v>25</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F107" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="2" t="s">
         <v>7</v>
       </c>
@@ -3188,40 +3195,40 @@
       <c r="D108" s="2">
         <v>26</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B109" s="6" t="s">
+      <c r="F108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="2">
         <v>1</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E109" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F109" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F109" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
         <v>7</v>
       </c>
@@ -3234,40 +3241,40 @@
       <c r="D110" s="2">
         <v>2</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B111" s="6" t="s">
+      <c r="F110" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="2">
         <v>3</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E111" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F111" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="2" t="s">
         <v>7</v>
       </c>
@@ -3280,40 +3287,40 @@
       <c r="D112" s="2">
         <v>4</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F112" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B113" s="6" t="s">
+      <c r="F112" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2">
         <v>5</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F113" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="2" t="s">
         <v>7</v>
       </c>
@@ -3326,40 +3333,40 @@
       <c r="D114" s="2">
         <v>6</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B115" s="6" t="s">
+      <c r="F114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2">
         <v>7</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F115" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="2" t="s">
         <v>7</v>
       </c>
@@ -3372,40 +3379,40 @@
       <c r="D116" s="2">
         <v>8</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" s="6" t="s">
+      <c r="F116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2">
         <v>9</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F117" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F117" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="2" t="s">
         <v>7</v>
       </c>
@@ -3418,40 +3425,40 @@
       <c r="D118" s="2">
         <v>10</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119" s="6" t="s">
+      <c r="F118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2">
         <v>11</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E119" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F119" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F119" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="2" t="s">
         <v>7</v>
       </c>
@@ -3464,40 +3471,40 @@
       <c r="D120" s="2">
         <v>12</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F120" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" s="6" t="s">
+      <c r="F120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2">
         <v>13</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E121" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F121" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="2" t="s">
         <v>7</v>
       </c>
@@ -3510,17 +3517,17 @@
       <c r="D122" s="2">
         <v>14</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="2" t="s">
         <v>7</v>
       </c>
@@ -3533,40 +3540,40 @@
       <c r="D123" s="2">
         <v>15</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F123" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B124" s="6" t="s">
+      <c r="F123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2">
         <v>16</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E124" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F124" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="2" t="s">
         <v>7</v>
       </c>
@@ -3579,40 +3586,40 @@
       <c r="D125" s="2">
         <v>17</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F125" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B126" s="6" t="s">
+      <c r="F125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2">
         <v>18</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="E126" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F126" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F126" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="2" t="s">
         <v>7</v>
       </c>
@@ -3625,40 +3632,40 @@
       <c r="D127" s="2">
         <v>19</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F127" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B128" s="6" t="s">
+      <c r="F127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C128" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2">
         <v>20</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="E128" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F128" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="2" t="s">
         <v>7</v>
       </c>
@@ -3671,40 +3678,40 @@
       <c r="D129" s="2">
         <v>21</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F129" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B130" s="6" t="s">
+      <c r="F129" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2">
         <v>22</v>
       </c>
-      <c r="E130" s="7" t="s">
+      <c r="E130" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F130" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F130" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="2" t="s">
         <v>7</v>
       </c>
@@ -3717,40 +3724,40 @@
       <c r="D131" s="2">
         <v>23</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F131" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B132" s="6" t="s">
+      <c r="F131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2">
         <v>24</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="E132" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F132" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F132" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="2" t="s">
         <v>7</v>
       </c>
@@ -3763,40 +3770,40 @@
       <c r="D133" s="2">
         <v>25</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F133" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B134" s="6" t="s">
+      <c r="F133" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2">
         <v>26</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="E134" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F134" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="2" t="s">
         <v>7</v>
       </c>
@@ -3809,40 +3816,40 @@
       <c r="D135" s="2">
         <v>1</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F135" s="4">
+      <c r="F135" s="3">
         <v>0.4375</v>
       </c>
-      <c r="G135" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B136" s="6" t="s">
+      <c r="G135" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2">
         <v>2</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="E136" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F136" s="8">
+      <c r="F136" s="6">
         <v>0.4375</v>
       </c>
-      <c r="G136" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G136" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="2" t="s">
         <v>7</v>
       </c>
@@ -3855,40 +3862,40 @@
       <c r="D137" s="2">
         <v>3</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F137" s="4">
+      <c r="F137" s="3">
         <v>0.4375</v>
       </c>
-      <c r="G137" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B138" s="6" t="s">
+      <c r="G137" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2">
         <v>4</v>
       </c>
-      <c r="E138" s="7" t="s">
+      <c r="E138" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F138" s="8">
+      <c r="F138" s="6">
         <v>0.4375</v>
       </c>
-      <c r="G138" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G138" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="2" t="s">
         <v>7</v>
       </c>
@@ -3901,40 +3908,40 @@
       <c r="D139" s="2">
         <v>5</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F139" s="4">
+      <c r="F139" s="3">
         <v>0.4375</v>
       </c>
-      <c r="G139" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B140" s="6" t="s">
+      <c r="G139" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2">
         <v>6</v>
       </c>
-      <c r="E140" s="7" t="s">
+      <c r="E140" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F140" s="8">
+      <c r="F140" s="6">
         <v>0.4375</v>
       </c>
-      <c r="G140" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G140" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="2" t="s">
         <v>7</v>
       </c>
@@ -3947,40 +3954,40 @@
       <c r="D141" s="2">
         <v>7</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F141" s="4">
+      <c r="F141" s="3">
         <v>0.4375</v>
       </c>
-      <c r="G141" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B142" s="6" t="s">
+      <c r="G141" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C142" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2">
         <v>8</v>
       </c>
-      <c r="E142" s="7" t="s">
+      <c r="E142" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F142" s="8">
+      <c r="F142" s="6">
         <v>0.4375</v>
       </c>
-      <c r="G142" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G142" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="2" t="s">
         <v>7</v>
       </c>
@@ -3993,40 +4000,40 @@
       <c r="D143" s="2">
         <v>9</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F143" s="4">
+      <c r="F143" s="3">
         <v>0.4375</v>
       </c>
-      <c r="G143" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B144" s="6" t="s">
+      <c r="G143" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="C144" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="2">
         <v>10</v>
       </c>
-      <c r="E144" s="7" t="s">
+      <c r="E144" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F144" s="8">
+      <c r="F144" s="6">
         <v>0.4375</v>
       </c>
-      <c r="G144" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G144" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="2" t="s">
         <v>7</v>
       </c>
@@ -4039,40 +4046,40 @@
       <c r="D145" s="2">
         <v>11</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E145" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F145" s="4">
+      <c r="F145" s="3">
         <v>0.4375</v>
       </c>
-      <c r="G145" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B146" s="6" t="s">
+      <c r="G145" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C146" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2">
         <v>12</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="E146" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F146" s="8">
+      <c r="F146" s="6">
         <v>0.4375</v>
       </c>
-      <c r="G146" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G146" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="2" t="s">
         <v>7</v>
       </c>
@@ -4085,63 +4092,63 @@
       <c r="D147" s="2">
         <v>13</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F147" s="4">
+      <c r="F147" s="3">
         <v>0.4375</v>
       </c>
-      <c r="G147" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B148" s="6" t="s">
+      <c r="G147" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C148" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="2">
         <v>14</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="E148" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F148" s="8">
+      <c r="F148" s="6">
         <v>0.4375</v>
       </c>
-      <c r="G148" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B149" s="6" t="s">
+      <c r="G148" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C149" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2">
         <v>15</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="E149" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F149" s="8">
+      <c r="F149" s="6">
         <v>0.4375</v>
       </c>
-      <c r="G149" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G149" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="2" t="s">
         <v>7</v>
       </c>
@@ -4154,40 +4161,40 @@
       <c r="D150" s="2">
         <v>16</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="E150" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F150" s="4">
+      <c r="F150" s="3">
         <v>0.4375</v>
       </c>
-      <c r="G150" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B151" s="6" t="s">
+      <c r="G150" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C151" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2">
         <v>17</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="E151" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F151" s="8">
+      <c r="F151" s="6">
         <v>0.4375</v>
       </c>
-      <c r="G151" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G151" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="2" t="s">
         <v>7</v>
       </c>
@@ -4200,40 +4207,40 @@
       <c r="D152" s="2">
         <v>18</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F152" s="4">
+      <c r="F152" s="3">
         <v>0.4375</v>
       </c>
-      <c r="G152" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B153" s="6" t="s">
+      <c r="G152" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C153" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="2">
         <v>19</v>
       </c>
-      <c r="E153" s="7" t="s">
+      <c r="E153" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F153" s="8">
+      <c r="F153" s="6">
         <v>0.4375</v>
       </c>
-      <c r="G153" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G153" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="2" t="s">
         <v>7</v>
       </c>
@@ -4246,40 +4253,40 @@
       <c r="D154" s="2">
         <v>20</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F154" s="4">
+      <c r="F154" s="3">
         <v>0.4375</v>
       </c>
-      <c r="G154" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B155" s="6" t="s">
+      <c r="G154" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="2">
         <v>21</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E155" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F155" s="8">
+      <c r="F155" s="6">
         <v>0.4375</v>
       </c>
-      <c r="G155" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G155" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="2" t="s">
         <v>7</v>
       </c>
@@ -4292,40 +4299,40 @@
       <c r="D156" s="2">
         <v>22</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F156" s="4">
+      <c r="F156" s="3">
         <v>0.4375</v>
       </c>
-      <c r="G156" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B157" s="6" t="s">
+      <c r="G156" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="2">
         <v>23</v>
       </c>
-      <c r="E157" s="7" t="s">
+      <c r="E157" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F157" s="8">
+      <c r="F157" s="6">
         <v>0.4375</v>
       </c>
-      <c r="G157" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G157" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="2" t="s">
         <v>7</v>
       </c>
@@ -4338,40 +4345,40 @@
       <c r="D158" s="2">
         <v>24</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F158" s="4">
+      <c r="F158" s="3">
         <v>0.4375</v>
       </c>
-      <c r="G158" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B159" s="6" t="s">
+      <c r="G158" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2">
         <v>25</v>
       </c>
-      <c r="E159" s="7" t="s">
+      <c r="E159" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F159" s="8">
+      <c r="F159" s="6">
         <v>0.4375</v>
       </c>
-      <c r="G159" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G159" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="2" t="s">
         <v>7</v>
       </c>
@@ -4384,18 +4391,19 @@
       <c r="D160" s="2">
         <v>26</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F160" s="4">
+      <c r="F160" s="3">
         <v>0.4375</v>
       </c>
-      <c r="G160" s="5">
+      <c r="G160" s="4">
         <v>120</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>